--- a/shabaud.xlsx
+++ b/shabaud.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166F3CE7-1581-456F-A3E8-D34E1A8797A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FE2692-4AF5-4672-B121-91627D39D863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$G$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$G$16</definedName>
   </definedNames>
   <calcPr calcId="144525" refMode="R1C1"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Ауд.</t>
   </si>
@@ -68,35 +68,22 @@
   </si>
   <si>
     <t>2 неделя</t>
+  </si>
+  <si>
+    <t>7-ая пара</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -114,6 +101,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -147,16 +156,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -171,7 +193,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -186,22 +208,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -210,253 +217,50 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="88" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,18 +555,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -780,167 +584,186 @@
       <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0"/>
